--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -82621,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -78271,7 +78271,9 @@
       <c r="P1468" t="n">
         <v>0</v>
       </c>
-      <c r="Q1468" t="inlineStr"/>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -82733,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1469"/>
+  <dimension ref="A1:R1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82737,6 +82737,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>619.3499755859375</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>630.5999755859375</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>609</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>7254899</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>607</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>613</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>613</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>9802404</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1471"/>
+  <dimension ref="A1:R1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82669,7 +82669,7 @@
         <v>23</v>
       </c>
       <c r="O1468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1468" t="n">
         <v>0</v>
@@ -82789,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82843,7 +82845,1035 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>614.2000122070312</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>622.9000244140625</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>615.3499755859375</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>615.3499755859375</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>14670413</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>632</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>655.7999877929688</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>629</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>650.0999755859375</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>650.0999755859375</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>21739511</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>658.9500122070312</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>686.25</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>668.6500244140625</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>668.6500244140625</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>12824804</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>649.0999755859375</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>679.75</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>679.75</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>10953948</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>679.5</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>691</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>659.5999755859375</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>662.4000244140625</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>662.4000244140625</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>8734092</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>656.1500244140625</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>626.25</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>653</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>653</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>23600936</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>648</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>665.75</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>637.7000122070312</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>8854407</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>666.2000122070312</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>688.6500244140625</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>660.7999877929688</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>678.2000122070312</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>678.2000122070312</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>7380555</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>681</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>692.7999877929688</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>15620551</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>648</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>673.9500122070312</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>633</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>16463119</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>665</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>11938554</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>683.0499877929688</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>710.5</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>675.5499877929688</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>709</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>709</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>9077184</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>709.0499877929688</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>681.5499877929688</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>21963579</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>11018938</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>686.25</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>704.6500244140625</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>673.7999877929688</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>7005441</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>692.5</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>654.5999755859375</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>669.2999877929688</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>669.2999877929688</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>9593468</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>665.0999755859375</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>670.0999755859375</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>631.0499877929688</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>640.0999755859375</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>640.0999755859375</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>7542971</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>640.0999755859375</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>687</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>616.8499755859375</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>645.9500122070312</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>645.9500122070312</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>21370838</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>642.5999755859375</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>650</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>624.7999877929688</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>629.8499755859375</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>629.8499755859375</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>6352800</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARICO.NS.xlsx
+++ b/stock_historical_data/1wk/MARICO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1490"/>
+  <dimension ref="A1:R1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -82901,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82955,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -83009,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>2</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83063,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83117,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83171,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83225,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83279,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83333,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83387,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83441,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83495,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83549,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83603,7 +83629,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83657,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83711,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83765,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83819,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83873,7 +83909,1049 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>621.693370814261</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>624.9758996697117</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>585.9335559825761</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>589.1166381835938</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>12546107</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>589.1166444030717</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>598.4669370837294</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>576.5335461600504</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>595.9801635742188</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>4602604</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>600.953710284931</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>660.5864904426077</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>595.6319785499621</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>641.537841796875</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>24856108</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>633.7293061286902</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>645.715602432722</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>623.7324892479762</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>630.297607421875</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>6364437</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>617.8139618098102</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>645.1684693248712</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>597.3726965182765</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>636.4150390625</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>13600569</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>636.2658580842104</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>644.5716568466437</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>622.6880512129613</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>624.6277465820312</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>9612036</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>621.8425766785532</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>642.2838417522767</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>616.9187532358594</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>629.2531127929688</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>4193796</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>629.253138290981</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>660.1389135411124</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>624.8764533852036</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>657.4531860351562</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>7624069</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>663.471136956582</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>676.0044504912553</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>619.9526028608541</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>670.3346557617188</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>12294266</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>667.4500064764876</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>671.6775214206382</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>641.9854701566188</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>660.8849487304688</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>8805748</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>663.9188017902195</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>670.7822602292597</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>651.8827816116739</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>662.6754150390625</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>5957088</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>657.5526415767699</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>733.001386550524</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>650.7886297493365</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>690.5272827148438</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>13473879</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>684.7579598987062</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>686.3991939445781</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>641.537825294869</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>645.8150634765625</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>7939104</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>648.4500122070312</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>652</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>620.2999877929688</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>633.75</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>7650865</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>644.6500244140625</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>613.5999755859375</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>624.7999877929688</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>6175189</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>625.8499755859375</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>600.5999755859375</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>6889193</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>613.3499755859375</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>577.8499755859375</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>609.6500244140625</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>12841994</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>592.7000122070312</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>7783100</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>634.5499877929688</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>630.7999877929688</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>5009272</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>661</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>622.2000122070312</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>651.6500244140625</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>6591314</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
